--- a/matlab/Compiled_Data_Import/Conversion.xlsx
+++ b/matlab/Compiled_Data_Import/Conversion.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Lake-Erie-2019\matlab\Compiled_Data_Import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Users/matthipsey/Dropbox (ARC  Linkages)/GitHub/Lake-Erie/data/processed/Compiled_Data_Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6346C4-5C77-4D4A-A5D0-1105B42E6966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17850"/>
+    <workbookView xWindow="-48080" yWindow="3460" windowWidth="28080" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="104">
   <si>
     <t>TOTAL ALKALINITY</t>
   </si>
@@ -249,13 +258,100 @@
   </si>
   <si>
     <t>Ignore</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_CAR_TALK</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_SECCHI</t>
+  </si>
+  <si>
+    <t>WQ_CAR_PH</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_TOT_TDN</t>
+  </si>
+  <si>
+    <t>WQ_GEO_CL</t>
+  </si>
+  <si>
+    <t>WQ_GEO_SO4</t>
+  </si>
+  <si>
+    <t>WQ_GEO_CA</t>
+  </si>
+  <si>
+    <t>WQ_GEO_MG</t>
+  </si>
+  <si>
+    <t>WQ_GEO_K</t>
+  </si>
+  <si>
+    <t>WQ_GEO_NA</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>mg CaCO3/L</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NTU</t>
+  </si>
+  <si>
+    <t>uS/cm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>mg C/L</t>
+  </si>
+  <si>
+    <t>mmol C/m3</t>
+  </si>
+  <si>
+    <t>mmol O/m3</t>
+  </si>
+  <si>
+    <t>mg N/L</t>
+  </si>
+  <si>
+    <t>mmol N/m3</t>
+  </si>
+  <si>
+    <t>mg P/L</t>
+  </si>
+  <si>
+    <t>mmol P/m3</t>
+  </si>
+  <si>
+    <t>mmol Si/m3</t>
+  </si>
+  <si>
+    <t>ug chla/L</t>
+  </si>
+  <si>
+    <t>WQ_DIAG_SIL_TSI</t>
+  </si>
+  <si>
+    <t>mg SS/L</t>
+  </si>
+  <si>
+    <t>mg/L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +377,26 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Candara"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -326,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -349,14 +465,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,21 +757,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="30.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:51" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
@@ -661,82 +781,86 @@
       <c r="C1" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="D1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="10"/>
       <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
       <c r="AH1" s="11"/>
-      <c r="AI1" s="11"/>
-      <c r="AJ1" s="11"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="11"/>
-      <c r="AT1" s="11"/>
-      <c r="AU1" s="11"/>
-      <c r="AV1" s="11"/>
-      <c r="AW1" s="11"/>
-      <c r="AX1" s="11"/>
-      <c r="AY1" s="11"/>
-      <c r="AZ1" s="11"/>
-      <c r="BA1" s="11"/>
-      <c r="BB1" s="11"/>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
-      <c r="BE1" s="11"/>
-    </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+    </row>
+    <row r="2" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>74</v>
+      <c r="B2" s="12" t="s">
+        <v>75</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
+      <c r="B3" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D3" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -746,8 +870,11 @@
       <c r="C4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -757,8 +884,11 @@
       <c r="C5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D5" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -768,8 +898,11 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D6" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -779,19 +912,25 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
+      <c r="B8" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:57" ht="24" x14ac:dyDescent="0.3">
+      <c r="D8" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -801,8 +940,11 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D9" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -813,8 +955,11 @@
         <f>1000/12</f>
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="11" spans="1:57" ht="24" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -824,8 +969,11 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D11" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -836,8 +984,11 @@
         <f>1000/12</f>
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="13" spans="1:57" ht="24" x14ac:dyDescent="0.3">
+      <c r="D12" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -847,8 +998,11 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D13" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -859,8 +1013,11 @@
         <f>1000/12</f>
         <v>83.333333333333329</v>
       </c>
-    </row>
-    <row r="15" spans="1:57" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D14" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -871,8 +1028,11 @@
         <f>1000/32</f>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
+      <c r="D15" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:51" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -882,8 +1042,11 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D16" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -894,8 +1057,11 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -905,8 +1071,11 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D18" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -917,8 +1086,11 @@
         <f>1000/31</f>
         <v>32.258064516129032</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -928,8 +1100,11 @@
       <c r="C20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D20" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -940,8 +1115,11 @@
         <f>1000/31</f>
         <v>32.258064516129032</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="D21" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -951,8 +1129,11 @@
       <c r="C22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D22" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -963,8 +1144,11 @@
         <f>1000/31</f>
         <v>32.258064516129032</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -974,8 +1158,11 @@
       <c r="C24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D24" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -986,8 +1173,11 @@
         <f>1000/31</f>
         <v>32.258064516129032</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="D25" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -997,8 +1187,11 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D26" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1009,8 +1202,11 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D27" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1021,19 +1217,26 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="14">
+        <f>1000/14</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1043,8 +1246,11 @@
       <c r="C30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1055,8 +1261,11 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D31" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1067,8 +1276,11 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1078,8 +1290,11 @@
       <c r="C33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1089,8 +1304,11 @@
       <c r="C34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D34" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1101,8 +1319,11 @@
         <f>1000/14</f>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -1112,8 +1333,11 @@
       <c r="C36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1123,19 +1347,25 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>74</v>
+      <c r="B38" s="12" t="s">
+        <v>79</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -1145,19 +1375,25 @@
       <c r="C39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>74</v>
+      <c r="B40" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1167,8 +1403,11 @@
       <c r="C41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1178,64 +1417,82 @@
       <c r="C42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D42" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C43" s="8">
         <f>1000/28.1</f>
         <v>35.587188612099645</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>74</v>
+      <c r="B44" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>74</v>
+      <c r="B45" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>74</v>
+      <c r="B46" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>74</v>
+      <c r="B47" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="D47" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -1245,8 +1502,11 @@
       <c r="C48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -1256,8 +1516,11 @@
       <c r="C49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -1267,8 +1530,11 @@
       <c r="C50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D50" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -1278,8 +1544,11 @@
       <c r="C51" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D51" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1290,8 +1559,11 @@
         <f>1000/28.1</f>
         <v>35.587188612099645</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="D52" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
@@ -1300,6 +1572,9 @@
       </c>
       <c r="C53" s="2">
         <v>1</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/matlab/Compiled_Data_Import/Conversion.xlsx
+++ b/matlab/Compiled_Data_Import/Conversion.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/SSD/Users/matthipsey/Dropbox (ARC  Linkages)/GitHub/Lake-Erie/data/processed/Compiled_Data_Import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github 2018\Lake-Erie-2019\matlab\Compiled_Data_Import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6346C4-5C77-4D4A-A5D0-1105B42E6966}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48080" yWindow="3460" windowWidth="28080" windowHeight="23540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-48080" yWindow="3460" windowWidth="28080" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -350,7 +349,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -757,21 +756,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="178" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="2"/>
+    <col min="1" max="1" width="30.6328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="23.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.6328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>52</v>
       </c>
@@ -832,7 +831,7 @@
       <c r="AX1" s="10"/>
       <c r="AY1" s="10"/>
     </row>
-    <row r="2" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -846,7 +845,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -860,7 +859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -874,7 +873,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -888,7 +887,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -902,7 +901,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -916,7 +915,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -930,7 +929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:51" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -944,7 +943,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -959,7 +958,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:51" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -973,7 +972,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -988,7 +987,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:51" ht="24" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1016,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="16" spans="1:51" ht="13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1061,7 +1060,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -1075,7 +1074,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1103,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1133,7 +1132,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>21</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>22</v>
       </c>
@@ -1162,7 +1161,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1176,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>26</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>27</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>28</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>29</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>31</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>33</v>
       </c>
@@ -1323,7 +1322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>34</v>
       </c>
@@ -1337,7 +1336,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1378,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>40</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>41</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
@@ -1464,7 +1463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
@@ -1506,7 +1505,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
@@ -1520,7 +1519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="13" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -1548,7 +1547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>50</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="26" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>51</v>
       </c>
